--- a/InputData/trans/ICtPSFfL/Incremental Cost to Produce Substitute Fuel for LCFS.xlsx
+++ b/InputData/trans/ICtPSFfL/Incremental Cost to Produce Substitute Fuel for LCFS.xlsx
@@ -1,53 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jonah\Documents\EPS Model\Test\.USE THIS TO TEST\InputData\trans\ICtPSFfL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\ICtPSFfL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CA9E1A-8895-4F32-B2DC-644CA3E8D467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20085" yWindow="4140" windowWidth="13560" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13800"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
-    <sheet name="Calcs" sheetId="4" r:id="rId2"/>
+    <sheet name="Calcs" sheetId="1" r:id="rId2"/>
     <sheet name="ICtPSFfL" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="btu_per_EGJ">About!$A$27</definedName>
-    <definedName name="btu_per_EJ">About!$A$27</definedName>
-    <definedName name="btu_per_GJ">About!$A$27</definedName>
+    <definedName name="btu_per_EGJ">About!$A$24</definedName>
+    <definedName name="btu_per_EJ">About!$A$24</definedName>
+    <definedName name="btu_per_GJ">About!$A$24</definedName>
     <definedName name="HHV_Adjust">[1]About!$A$160</definedName>
     <definedName name="lignite_multiplier">#REF!</definedName>
     <definedName name="nonlignite_multiplier">#REF!</definedName>
     <definedName name="use_lifecycle_biofuel_EIs">[1]About!$A$61</definedName>
   </definedNames>
-  <calcPr calcId="181029" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+  <si>
+    <t>Renewable Diesel</t>
+  </si>
+  <si>
+    <t>Biodiesel</t>
+  </si>
+  <si>
+    <t>Renewable Gasoline</t>
+  </si>
+  <si>
+    <t>NAN</t>
+  </si>
+  <si>
+    <t>Renewable Ethanol</t>
+  </si>
+  <si>
+    <t>Gasoline</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Conventional Gasoline/Ethanol</t>
+  </si>
+  <si>
+    <t>$/BTU</t>
+  </si>
   <si>
     <t>BTU/GJ</t>
+  </si>
+  <si>
+    <t>Reference Fuels</t>
   </si>
   <si>
     <t>electricity</t>
@@ -68,7 +91,19 @@
     <t>petroleum diesel</t>
   </si>
   <si>
+    <t>Incremental Costs of Production ($/BTU)</t>
+  </si>
+  <si>
+    <t>$/GJ</t>
+  </si>
+  <si>
     <t>jet fuel</t>
+  </si>
+  <si>
+    <t>Weighted Average Delivered Energy Costs</t>
+  </si>
+  <si>
+    <t>E3 Pathways</t>
   </si>
   <si>
     <t>Fuel Production Costs</t>
@@ -80,73 +115,46 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>Incremental Cost to Produce Substitute Fuel</t>
+    <t xml:space="preserve">conventional fuels to LCFS substitute fuels. In Pathways, conventional ethanol </t>
   </si>
   <si>
-    <t xml:space="preserve">conventional fuels to LCFS substitute fuels. </t>
+    <t>has the same price as gasoline, so it has no incremental cost. Electricity credits</t>
   </si>
   <si>
-    <t>in Pathways the delivered natural gas prices</t>
+    <t>are typically delivered to electric charging station owners, and there is no incremental</t>
   </si>
   <si>
-    <t xml:space="preserve">are all below the gasoline price, so we use a value of zero. </t>
+    <t>cost of electricity production. Similarly, in Pathways the delivered natural gas prices</t>
   </si>
   <si>
-    <t>Electricity use for transportation is driven by the ZEV mandate in the model.</t>
+    <t>are all below the gasoline price, so we use a value of zero. Only renewable diesel,</t>
   </si>
   <si>
-    <t>Therefore, no additional cost is generated through the LCFS.</t>
+    <t>which we use as the substitute fuel for petroleum diesel, has an incremental cost</t>
   </si>
   <si>
-    <t>For biofuel gasoline, see row 41 of the sheet "Bio gasoline compute"</t>
+    <t>increase. Note also that per Pathways, this value drops over time, eventually falling so far</t>
   </si>
   <si>
-    <t>File name, "BFCpUEbS BAU Fuel Cost per Unit Energy by Sector.xls"</t>
+    <t>costs to a low value of zero.</t>
   </si>
   <si>
-    <t>For biofuel diesel, see row 37 of the sheet "Bio diesel compute"</t>
+    <t>that it costs lets than traditional diesel to produce, though we limit our incremental</t>
   </si>
   <si>
-    <t>$/btu</t>
+    <t>This varibale calculates the incremental fuel production cost from switching from</t>
   </si>
   <si>
-    <t>This variable calculates the incremental fuel cost from switching from</t>
+    <t>Conversion Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">Energy + Environmental Economics, Inc.  </t>
+    <t>jet fuel) should always have a value of zero in this variable.</t>
   </si>
   <si>
-    <t>California Pathways model, 2030 Scoping Plan Analysis</t>
+    <t>Conventional fuels under the LCFS (petroleum gasoline, petroleum diesel, and</t>
   </si>
   <si>
-    <t>September 2017 release</t>
-  </si>
-  <si>
-    <t>Model documentation:  https://www.arb.ca.gov/cc/scopingplan/california_pathways_model_framework_jan2017.pdf</t>
-  </si>
-  <si>
-    <t>Discussion of model application for Scoping Plan:  https://www.arb.ca.gov/cc/scopingplan/2030sp_appd_pathways_final.pdf</t>
-  </si>
-  <si>
-    <t>Model itself downloadable (as of July 26, 2018): https://www.arb.ca.gov/cc/scopingplan/pathways_arb_2.4.1_101917.zip</t>
-  </si>
-  <si>
-    <t>Weighted Average Delivered Energy Costs are the Pathways variable used to calculate this input.</t>
-  </si>
-  <si>
-    <t>"Calcs" sheet shows calculations for biofuel gasoline and biofuel diesel.</t>
-  </si>
-  <si>
-    <t>For more details, go to the sheet calculating BAU fuel costs.</t>
-  </si>
-  <si>
-    <t>Additional Notes for Oregon EPS</t>
-  </si>
-  <si>
-    <t>For now we are simply using California EPS numbers here for lack of applicable Oregon data.</t>
-  </si>
-  <si>
-    <t>The states should face similar incremental substitute fuel costs, so not much should be affected.</t>
+    <t>ICtPSFfL Incremental Cost to Produce Substitute Fuel for LCFS</t>
   </si>
   <si>
     <t>heavy or residual fuel oil</t>
@@ -157,15 +165,14 @@
   <si>
     <t>hydrogen</t>
   </si>
+  <si>
+    <t>Cost ($/BTU)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000E+00"/>
-    <numFmt numFmtId="165" formatCode="0.000000E+00"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -209,17 +216,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,147 +574,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>947817.12</v>
+      </c>
+      <c r="B24" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.45" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>947817.12</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -719,1112 +697,3061 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AJ11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="36" max="36" width="10" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>2015</v>
+      </c>
+      <c r="C2">
         <v>2016</v>
       </c>
-      <c r="C1">
+      <c r="D2">
         <v>2017</v>
       </c>
-      <c r="D1">
+      <c r="E2">
         <v>2018</v>
       </c>
-      <c r="E1">
+      <c r="F2">
         <v>2019</v>
       </c>
-      <c r="F1">
+      <c r="G2">
         <v>2020</v>
       </c>
-      <c r="G1">
+      <c r="H2">
         <v>2021</v>
       </c>
-      <c r="H1">
+      <c r="I2">
         <v>2022</v>
       </c>
-      <c r="I1">
+      <c r="J2">
         <v>2023</v>
       </c>
-      <c r="J1">
+      <c r="K2">
         <v>2024</v>
       </c>
-      <c r="K1">
+      <c r="L2">
         <v>2025</v>
       </c>
-      <c r="L1">
+      <c r="M2">
         <v>2026</v>
       </c>
-      <c r="M1">
+      <c r="N2">
         <v>2027</v>
       </c>
-      <c r="N1">
+      <c r="O2">
         <v>2028</v>
       </c>
-      <c r="O1">
+      <c r="P2">
         <v>2029</v>
       </c>
-      <c r="P1">
+      <c r="Q2">
         <v>2030</v>
       </c>
-      <c r="Q1">
+      <c r="R2">
         <v>2031</v>
       </c>
-      <c r="R1">
+      <c r="S2">
         <v>2032</v>
       </c>
-      <c r="S1">
+      <c r="T2">
         <v>2033</v>
       </c>
-      <c r="T1">
+      <c r="U2">
         <v>2034</v>
       </c>
-      <c r="U1">
+      <c r="V2">
         <v>2035</v>
       </c>
-      <c r="V1">
+      <c r="W2">
         <v>2036</v>
       </c>
-      <c r="W1">
+      <c r="X2">
         <v>2037</v>
       </c>
-      <c r="X1">
+      <c r="Y2">
         <v>2038</v>
       </c>
-      <c r="Y1">
+      <c r="Z2">
         <v>2039</v>
       </c>
-      <c r="Z1">
+      <c r="AA2">
         <v>2040</v>
       </c>
-      <c r="AA1">
+      <c r="AB2">
         <v>2041</v>
       </c>
-      <c r="AB1">
+      <c r="AC2">
         <v>2042</v>
       </c>
-      <c r="AC1">
+      <c r="AD2">
         <v>2043</v>
       </c>
-      <c r="AD1">
+      <c r="AE2">
         <v>2044</v>
       </c>
-      <c r="AE1">
+      <c r="AF2">
         <v>2045</v>
       </c>
-      <c r="AF1">
+      <c r="AG2">
         <v>2046</v>
       </c>
-      <c r="AG1">
+      <c r="AH2">
         <v>2047</v>
       </c>
-      <c r="AH1">
+      <c r="AI2">
         <v>2048</v>
       </c>
-      <c r="AI1">
+      <c r="AJ2">
         <v>2049</v>
       </c>
-      <c r="AJ1">
+      <c r="AK2">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>30.8367260296898</v>
+      </c>
+      <c r="C3">
+        <v>33.8729293834336</v>
+      </c>
+      <c r="D3">
+        <v>36.682683709276098</v>
+      </c>
+      <c r="E3">
+        <v>36.901313724718499</v>
+      </c>
+      <c r="F3">
+        <v>36.791571906564201</v>
+      </c>
+      <c r="G3">
+        <v>36.959500809161298</v>
+      </c>
+      <c r="H3">
+        <v>37.140568977148</v>
+      </c>
+      <c r="I3">
+        <v>37.201341596238301</v>
+      </c>
+      <c r="J3">
+        <v>36.728316129251802</v>
+      </c>
+      <c r="K3">
+        <v>36.677828784820498</v>
+      </c>
+      <c r="L3">
+        <v>36.626599818380598</v>
+      </c>
+      <c r="M3">
+        <v>36.572461411753103</v>
+      </c>
+      <c r="N3">
+        <v>36.514272608001797</v>
+      </c>
+      <c r="O3">
+        <v>36.448877970331999</v>
+      </c>
+      <c r="P3">
+        <v>36.3769621627359</v>
+      </c>
+      <c r="Q3">
+        <v>36.290113496790497</v>
+      </c>
+      <c r="R3">
+        <v>39.485801824193203</v>
+      </c>
+      <c r="S3">
+        <v>39.360335765631802</v>
+      </c>
+      <c r="T3">
+        <v>39.227440118650399</v>
+      </c>
+      <c r="U3">
+        <v>39.065413308941302</v>
+      </c>
+      <c r="V3">
+        <v>42.199321756490697</v>
+      </c>
+      <c r="W3">
+        <v>41.794950809280301</v>
+      </c>
+      <c r="X3">
+        <v>41.583448345097203</v>
+      </c>
+      <c r="Y3">
+        <v>40.963428663038599</v>
+      </c>
+      <c r="Z3">
+        <v>40.145703626660698</v>
+      </c>
+      <c r="AA3">
+        <v>38.195291008552203</v>
+      </c>
+      <c r="AB3">
+        <v>35.931080556081596</v>
+      </c>
+      <c r="AC3">
+        <v>32.806003427901203</v>
+      </c>
+      <c r="AD3">
+        <v>33.516125921839198</v>
+      </c>
+      <c r="AE3">
+        <v>34.240401085662803</v>
+      </c>
+      <c r="AF3">
+        <v>34.9791109833658</v>
+      </c>
+      <c r="AG3">
+        <v>35.732543302089297</v>
+      </c>
+      <c r="AH3">
+        <v>36.500991448572698</v>
+      </c>
+      <c r="AI3">
+        <v>37.284754693832603</v>
+      </c>
+      <c r="AJ3">
+        <v>38.084138269613902</v>
+      </c>
+      <c r="AK3">
+        <v>38.8994534841326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>30.978814519130498</v>
+      </c>
+      <c r="C4">
+        <v>34.031218109850101</v>
+      </c>
+      <c r="D4">
+        <v>36.8796163198502</v>
+      </c>
+      <c r="E4">
+        <v>37.075760968291704</v>
+      </c>
+      <c r="F4">
+        <v>37.256735950208999</v>
+      </c>
+      <c r="G4">
+        <v>37.420275852264801</v>
+      </c>
+      <c r="H4">
+        <v>37.546766209614901</v>
+      </c>
+      <c r="I4">
+        <v>37.654387681194002</v>
+      </c>
+      <c r="J4">
+        <v>36.901840311449902</v>
+      </c>
+      <c r="K4">
+        <v>36.851083582248002</v>
+      </c>
+      <c r="L4">
+        <v>36.799581273972997</v>
+      </c>
+      <c r="M4">
+        <v>36.745154001642298</v>
+      </c>
+      <c r="N4">
+        <v>36.686654720528203</v>
+      </c>
+      <c r="O4">
+        <v>36.624656952994499</v>
+      </c>
+      <c r="P4">
+        <v>36.555260746967001</v>
+      </c>
+      <c r="Q4">
+        <v>36.479154329282203</v>
+      </c>
+      <c r="R4">
+        <v>39.732315947579302</v>
+      </c>
+      <c r="S4">
+        <v>39.647692722791199</v>
+      </c>
+      <c r="T4">
+        <v>39.553434322290101</v>
+      </c>
+      <c r="U4">
+        <v>39.446443725311298</v>
+      </c>
+      <c r="V4">
+        <v>42.643600884777101</v>
+      </c>
+      <c r="W4">
+        <v>42.525742039002999</v>
+      </c>
+      <c r="X4">
+        <v>42.392770878941199</v>
+      </c>
+      <c r="Y4">
+        <v>42.241590383826598</v>
+      </c>
+      <c r="Z4">
+        <v>42.068931476185398</v>
+      </c>
+      <c r="AA4">
+        <v>41.870521414406703</v>
+      </c>
+      <c r="AB4">
+        <v>41.653902017575298</v>
+      </c>
+      <c r="AC4">
+        <v>47.526138928681398</v>
+      </c>
+      <c r="AD4">
+        <v>47.526138928681398</v>
+      </c>
+      <c r="AE4">
+        <v>47.526138928681398</v>
+      </c>
+      <c r="AF4">
+        <v>47.526138928681398</v>
+      </c>
+      <c r="AG4">
+        <v>47.526138928681398</v>
+      </c>
+      <c r="AH4">
+        <v>47.526138928681398</v>
+      </c>
+      <c r="AI4">
+        <v>47.526138928681398</v>
+      </c>
+      <c r="AJ4">
+        <v>47.526138928681398</v>
+      </c>
+      <c r="AK4">
+        <v>47.526138928681398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>20.2922337992403</v>
+      </c>
+      <c r="E5">
+        <v>23.1165145241578</v>
+      </c>
+      <c r="F5">
+        <v>22.6367452336548</v>
+      </c>
+      <c r="G5">
+        <v>20.614531247606099</v>
+      </c>
+      <c r="H5">
+        <v>24.4123828477519</v>
+      </c>
+      <c r="I5">
+        <v>22.145680536501199</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>21.3964771206401</v>
+      </c>
+      <c r="N5">
+        <v>21.7729145628895</v>
+      </c>
+      <c r="O5">
+        <v>22.2436609271344</v>
+      </c>
+      <c r="P5">
+        <v>22.683597538932801</v>
+      </c>
+      <c r="Q5">
+        <v>23.1218659183283</v>
+      </c>
+      <c r="R5">
+        <v>23.566176653619902</v>
+      </c>
+      <c r="S5">
+        <v>24.1310698620544</v>
+      </c>
+      <c r="T5">
+        <v>24.704385300341599</v>
+      </c>
+      <c r="U5">
+        <v>25.255915857274299</v>
+      </c>
+      <c r="V5">
+        <v>25.8263996697486</v>
+      </c>
+      <c r="W5">
+        <v>26.402122914468301</v>
+      </c>
+      <c r="X5">
+        <v>26.909595633042802</v>
+      </c>
+      <c r="Y5">
+        <v>27.5349971141585</v>
+      </c>
+      <c r="Z5">
+        <v>28.245733891082601</v>
+      </c>
+      <c r="AA5">
+        <v>28.879223203245399</v>
+      </c>
+      <c r="AB5">
+        <v>29.531293688379201</v>
+      </c>
+      <c r="AC5">
+        <v>30.1966448119476</v>
+      </c>
+      <c r="AD5">
+        <v>30.875547063714201</v>
+      </c>
+      <c r="AE5">
+        <v>31.568276440847001</v>
+      </c>
+      <c r="AF5">
+        <v>32.275114544370702</v>
+      </c>
+      <c r="AG5">
+        <v>32.996348733489803</v>
+      </c>
+      <c r="AH5">
+        <v>33.732272202749598</v>
+      </c>
+      <c r="AI5">
+        <v>34.483184146005001</v>
+      </c>
+      <c r="AJ5">
+        <v>35.249389814291398</v>
+      </c>
+      <c r="AK5">
+        <v>36.031200708728697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>32.527466640073698</v>
+      </c>
+      <c r="E6">
+        <v>33.1069196756671</v>
+      </c>
+      <c r="F6">
+        <v>33.1003833630879</v>
+      </c>
+      <c r="G6">
+        <v>33.485690785432297</v>
+      </c>
+      <c r="H6">
+        <v>33.612289874019702</v>
+      </c>
+      <c r="I6">
+        <v>35.599415538046003</v>
+      </c>
+      <c r="J6">
+        <v>32.242666969309099</v>
+      </c>
+      <c r="K6">
+        <v>33.6065564910934</v>
+      </c>
+      <c r="L6">
+        <v>33.686471702587497</v>
+      </c>
+      <c r="M6">
+        <v>32.5361535347255</v>
+      </c>
+      <c r="N6">
+        <v>32.601073994382801</v>
+      </c>
+      <c r="O6">
+        <v>32.578972963509798</v>
+      </c>
+      <c r="P6">
+        <v>33.997588461072702</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" t="s">
+        <v>3</v>
+      </c>
+      <c r="W6" t="s">
+        <v>3</v>
+      </c>
+      <c r="X6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK6">
+        <v>41.934834775512002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
-        <v>2.3600000000000001E-5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2.62E-5</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3.0700000000000001E-5</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3.1300000000000002E-5</v>
-      </c>
-      <c r="F2" s="2">
-        <v>3.1900000000000003E-5</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3.2400000000000001E-5</v>
-      </c>
-      <c r="H2" s="2">
-        <v>3.29E-5</v>
-      </c>
-      <c r="I2" s="2">
-        <v>3.3399999999999999E-5</v>
-      </c>
-      <c r="J2" s="2">
-        <v>3.3800000000000002E-5</v>
-      </c>
-      <c r="K2" s="2">
-        <v>3.4400000000000003E-5</v>
-      </c>
-      <c r="L2" s="2">
-        <v>3.4999999999999997E-5</v>
-      </c>
-      <c r="M2" s="2">
-        <v>3.5599999999999998E-5</v>
-      </c>
-      <c r="N2" s="2">
-        <v>3.6300000000000001E-5</v>
-      </c>
-      <c r="O2" s="2">
-        <v>3.6999999999999998E-5</v>
-      </c>
-      <c r="P2" s="2">
-        <v>3.7799999999999997E-5</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>3.8500000000000001E-5</v>
-      </c>
-      <c r="R2" s="2">
-        <v>3.9400000000000002E-5</v>
-      </c>
-      <c r="S2" s="2">
-        <v>4.0299999999999997E-5</v>
-      </c>
-      <c r="T2" s="2">
-        <v>4.1199999999999999E-5</v>
-      </c>
-      <c r="U2" s="2">
-        <v>4.21E-5</v>
-      </c>
-      <c r="V2" s="2">
-        <v>4.3099999999999997E-5</v>
-      </c>
-      <c r="W2" s="2">
-        <v>4.3900000000000003E-5</v>
-      </c>
-      <c r="X2" s="2">
-        <v>4.49E-5</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>4.6E-5</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>4.71E-5</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>4.8099999999999997E-5</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>4.9200000000000003E-5</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>5.0300000000000003E-5</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>5.1400000000000003E-5</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>5.2500000000000002E-5</v>
-      </c>
-      <c r="AF2" s="2">
-        <v>5.3699999999999997E-5</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>5.49E-5</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>5.6100000000000002E-5</v>
-      </c>
-      <c r="AI2" s="2">
-        <v>5.7299999999999997E-5</v>
-      </c>
-      <c r="AJ2" s="2">
-        <v>5.8600000000000001E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B7">
+        <v>15.357264235821001</v>
+      </c>
+      <c r="C7">
+        <v>17.928214248649098</v>
+      </c>
+      <c r="D7">
+        <v>18.885450227945402</v>
+      </c>
+      <c r="E7" s="2">
+        <v>19.0133949371196</v>
+      </c>
+      <c r="F7">
+        <v>19.153690140728902</v>
+      </c>
+      <c r="G7">
+        <v>19.479372731055701</v>
+      </c>
+      <c r="H7">
+        <v>19.8374928814148</v>
+      </c>
+      <c r="I7">
+        <v>20.124146387541099</v>
+      </c>
+      <c r="J7">
+        <v>20.405841388180399</v>
+      </c>
+      <c r="K7">
+        <v>20.681106544405299</v>
+      </c>
+      <c r="L7">
+        <v>21.044223205382401</v>
+      </c>
+      <c r="M7">
+        <v>21.396822042904098</v>
+      </c>
+      <c r="N7">
+        <v>21.773061470146899</v>
+      </c>
+      <c r="O7">
+        <v>22.243804889006501</v>
+      </c>
+      <c r="P7">
+        <v>22.6837492358313</v>
+      </c>
+      <c r="Q7">
+        <v>23.1218659183283</v>
+      </c>
+      <c r="R7">
+        <v>23.566176653619902</v>
+      </c>
+      <c r="S7">
+        <v>24.1310698620544</v>
+      </c>
+      <c r="T7">
+        <v>24.704385300341599</v>
+      </c>
+      <c r="U7">
+        <v>25.255915857274299</v>
+      </c>
+      <c r="V7">
+        <v>25.8263996697486</v>
+      </c>
+      <c r="W7">
+        <v>26.402122914468301</v>
+      </c>
+      <c r="X7">
+        <v>26.909595633042802</v>
+      </c>
+      <c r="Y7">
+        <v>27.5349971141585</v>
+      </c>
+      <c r="Z7">
+        <v>28.245733891082601</v>
+      </c>
+      <c r="AA7">
+        <v>28.879223203245399</v>
+      </c>
+      <c r="AB7">
+        <v>29.531293688379201</v>
+      </c>
+      <c r="AC7">
+        <v>30.1966448119476</v>
+      </c>
+      <c r="AD7">
+        <v>30.875547063714201</v>
+      </c>
+      <c r="AE7">
+        <v>31.568276440847001</v>
+      </c>
+      <c r="AF7">
+        <v>32.275114544370702</v>
+      </c>
+      <c r="AG7">
+        <v>32.996348733489803</v>
+      </c>
+      <c r="AH7">
+        <v>33.732272202749598</v>
+      </c>
+      <c r="AI7">
+        <v>34.483184146005001</v>
+      </c>
+      <c r="AJ7">
+        <v>35.249389814291398</v>
+      </c>
+      <c r="AK7">
+        <v>36.031508112322399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>1.9943640804057863E-5</v>
-      </c>
-      <c r="C3">
-        <v>2.3047153860604922E-5</v>
-      </c>
-      <c r="D3">
-        <v>2.8460416373203099E-5</v>
-      </c>
-      <c r="E3">
-        <v>2.9605532631899708E-5</v>
-      </c>
-      <c r="F3">
-        <v>3.0816829929914212E-5</v>
-      </c>
-      <c r="G3">
-        <v>3.1987813746837387E-5</v>
-      </c>
-      <c r="H3">
-        <v>3.3445859363801707E-5</v>
-      </c>
-      <c r="I3">
-        <v>3.4502049913559908E-5</v>
-      </c>
-      <c r="J3">
-        <v>3.4579849303211643E-5</v>
-      </c>
-      <c r="K3">
-        <v>3.469187120998436E-5</v>
-      </c>
-      <c r="L3">
-        <v>3.4812527375540324E-5</v>
-      </c>
-      <c r="M3">
-        <v>3.4936989387304336E-5</v>
-      </c>
-      <c r="N3">
-        <v>3.5272287390300228E-5</v>
-      </c>
-      <c r="O3">
-        <v>3.5449698454485416E-5</v>
-      </c>
-      <c r="P3">
-        <v>3.560766912876318E-5</v>
-      </c>
-      <c r="Q3">
-        <v>3.7605195887122376E-5</v>
-      </c>
-      <c r="R3">
-        <v>3.7816346152800351E-5</v>
-      </c>
-      <c r="S3">
-        <v>3.8066586338372939E-5</v>
-      </c>
-      <c r="T3">
-        <v>3.8405946890778381E-5</v>
-      </c>
-      <c r="U3">
-        <v>4.0218718323885942E-5</v>
-      </c>
-      <c r="V3">
-        <v>4.0515282090763516E-5</v>
-      </c>
-      <c r="W3">
-        <v>4.0777854768817534E-5</v>
-      </c>
-      <c r="X3">
-        <v>4.1180103064827576E-5</v>
-      </c>
-      <c r="Y3">
-        <v>4.1619575063231906E-5</v>
-      </c>
-      <c r="Z3">
-        <v>4.2018367211705579E-5</v>
-      </c>
-      <c r="AA3">
-        <v>4.2526107216884614E-5</v>
-      </c>
-      <c r="AB3">
-        <v>4.4199011763199953E-5</v>
-      </c>
-      <c r="AC3">
-        <v>4.4964400321507272E-5</v>
-      </c>
-      <c r="AD3">
-        <v>4.5559133157826754E-5</v>
-      </c>
-      <c r="AE3">
-        <v>4.6153100883812721E-5</v>
-      </c>
-      <c r="AF3">
-        <v>4.6795838584223798E-5</v>
-      </c>
-      <c r="AG3">
-        <v>4.7486674444884333E-5</v>
-      </c>
-      <c r="AH3">
-        <v>4.8225199519649947E-5</v>
-      </c>
-      <c r="AI3">
-        <v>4.9011067467339775E-5</v>
-      </c>
-      <c r="AJ3">
-        <v>4.9844108447186587E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2.8819373423252335E-5</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3.2161415993316324E-5</v>
-      </c>
-      <c r="D4" s="5">
-        <v>3.8066693935713794E-5</v>
-      </c>
-      <c r="E4" s="5">
-        <v>3.8394214969889415E-5</v>
-      </c>
-      <c r="F4" s="5">
-        <v>3.9091922874865472E-5</v>
-      </c>
-      <c r="G4" s="5">
-        <v>3.9835577931002622E-5</v>
-      </c>
-      <c r="H4" s="5">
-        <v>4.0606147959735674E-5</v>
-      </c>
-      <c r="I4" s="5">
-        <v>4.103745294006739E-5</v>
-      </c>
-      <c r="J4" s="5">
-        <v>4.1686785562687071E-5</v>
-      </c>
-      <c r="K4" s="5">
-        <v>4.2296471851750322E-5</v>
-      </c>
-      <c r="L4" s="5">
-        <v>4.3027027567956334E-5</v>
-      </c>
-      <c r="M4" s="5">
-        <v>4.379890295925205E-5</v>
-      </c>
-      <c r="N4" s="5">
-        <v>4.4613549485591591E-5</v>
-      </c>
-      <c r="O4" s="5">
-        <v>4.5514694083731094E-5</v>
-      </c>
-      <c r="P4" s="5">
-        <v>4.6328292322735761E-5</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>4.7186931243403346E-5</v>
-      </c>
-      <c r="R4" s="5">
-        <v>4.8268719927798751E-5</v>
-      </c>
-      <c r="S4" s="5">
-        <v>4.8731455601864136E-5</v>
-      </c>
-      <c r="T4" s="5">
-        <v>4.9600684319686027E-5</v>
-      </c>
-      <c r="U4" s="5">
-        <v>5.0296162124000966E-5</v>
-      </c>
-      <c r="V4" s="5">
-        <v>5.1018705190372614E-5</v>
-      </c>
-      <c r="W4" s="5">
-        <v>5.1816691693507274E-5</v>
-      </c>
-      <c r="X4" s="5">
-        <v>5.238497736249842E-5</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>5.3158329033934947E-5</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>5.3134557202990274E-5</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>5.4411905461036232E-5</v>
-      </c>
-      <c r="AB4" s="5">
-        <v>5.5735129954868373E-5</v>
-      </c>
-      <c r="AC4" s="5">
-        <v>5.7111537638057788E-5</v>
-      </c>
-      <c r="AD4" s="5">
-        <v>5.8549318675896501E-5</v>
-      </c>
-      <c r="AE4" s="5">
-        <v>6.0080473365398211E-5</v>
-      </c>
-      <c r="AF4" s="5">
-        <v>6.1695830790664411E-5</v>
-      </c>
-      <c r="AG4" s="5">
-        <v>6.3412616073714256E-5</v>
-      </c>
-      <c r="AH4" s="5">
-        <v>6.5247986717072829E-5</v>
-      </c>
-      <c r="AI4" s="5">
-        <v>6.7221574412995927E-5</v>
-      </c>
-      <c r="AJ4" s="5">
-        <v>6.9359185430411136E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B8">
+        <v>16.6352636486229</v>
+      </c>
+      <c r="C8">
+        <v>19.123924713899399</v>
+      </c>
+      <c r="D8">
+        <v>22.019310596993201</v>
+      </c>
+      <c r="E8">
+        <v>22.5212704146061</v>
+      </c>
+      <c r="F8">
+        <v>23.279974181563102</v>
+      </c>
+      <c r="G8">
+        <v>24.183564973146702</v>
+      </c>
+      <c r="H8">
+        <v>25.114456126404701</v>
+      </c>
+      <c r="I8">
+        <v>26.273551364326099</v>
+      </c>
+      <c r="J8">
+        <v>27.113185887634899</v>
+      </c>
+      <c r="K8">
+        <v>27.1750336796445</v>
+      </c>
+      <c r="L8">
+        <v>27.264087175071801</v>
+      </c>
+      <c r="M8">
+        <v>27.360004604056599</v>
+      </c>
+      <c r="N8">
+        <v>27.458947547582699</v>
+      </c>
+      <c r="O8">
+        <v>27.725497725461398</v>
+      </c>
+      <c r="P8">
+        <v>27.866533312591901</v>
+      </c>
+      <c r="Q8">
+        <v>27.9921144701059</v>
+      </c>
+      <c r="R8">
+        <v>29.580078335087901</v>
+      </c>
+      <c r="S8">
+        <v>29.7479354066264</v>
+      </c>
+      <c r="T8">
+        <v>29.946867596442001</v>
+      </c>
+      <c r="U8">
+        <v>30.2166473589233</v>
+      </c>
+      <c r="V8">
+        <v>31.657737206255799</v>
+      </c>
+      <c r="W8">
+        <v>31.893495022011599</v>
+      </c>
+      <c r="X8">
+        <v>32.102231111746804</v>
+      </c>
+      <c r="Y8">
+        <v>32.422004429496603</v>
+      </c>
+      <c r="Z8">
+        <v>32.7713692879232</v>
+      </c>
+      <c r="AA8">
+        <v>33.088395089337197</v>
+      </c>
+      <c r="AB8">
+        <v>33.4920306239582</v>
+      </c>
+      <c r="AC8">
+        <v>34.821931191245199</v>
+      </c>
+      <c r="AD8">
+        <v>35.430388308616202</v>
+      </c>
+      <c r="AE8">
+        <v>35.903180099485297</v>
+      </c>
+      <c r="AF8">
+        <v>36.375363654415999</v>
+      </c>
+      <c r="AG8">
+        <v>36.886317632200402</v>
+      </c>
+      <c r="AH8">
+        <v>37.4355079640805</v>
+      </c>
+      <c r="AI8">
+        <v>38.022609552183503</v>
+      </c>
+      <c r="AJ8">
+        <v>38.6473470673916</v>
+      </c>
+      <c r="AK8">
+        <v>39.309585492238803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>30.8367260296898</v>
+      </c>
+      <c r="C10">
+        <v>33.8729293834336</v>
+      </c>
+      <c r="D10">
+        <v>36.683281828653399</v>
+      </c>
+      <c r="E10">
+        <v>36.902112394573898</v>
+      </c>
+      <c r="F10">
+        <v>36.792839589394298</v>
+      </c>
+      <c r="G10">
+        <v>36.9611317288009</v>
+      </c>
+      <c r="H10">
+        <v>37.136317172433102</v>
+      </c>
+      <c r="I10">
+        <v>37.204454286359599</v>
+      </c>
+      <c r="J10">
+        <v>36.744945576598397</v>
+      </c>
+      <c r="K10">
+        <v>36.922278808423002</v>
+      </c>
+      <c r="L10">
+        <v>36.894382411330398</v>
+      </c>
+      <c r="M10">
+        <v>36.864546387446197</v>
+      </c>
+      <c r="N10">
+        <v>36.830346203280499</v>
+      </c>
+      <c r="O10">
+        <v>36.775998831937002</v>
+      </c>
+      <c r="P10">
+        <v>36.899417148687</v>
+      </c>
+      <c r="Q10">
+        <v>36.764803890889603</v>
+      </c>
+      <c r="R10">
+        <v>39.536667406341998</v>
+      </c>
+      <c r="S10">
+        <v>39.450583171392601</v>
+      </c>
+      <c r="T10">
+        <v>39.238065796928304</v>
+      </c>
+      <c r="U10">
+        <v>38.961110419247603</v>
+      </c>
+      <c r="V10">
+        <v>41.072339298003698</v>
+      </c>
+      <c r="W10">
+        <v>40.593925954554301</v>
+      </c>
+      <c r="X10">
+        <v>39.715411441798899</v>
+      </c>
+      <c r="Y10">
+        <v>38.5482287955315</v>
+      </c>
+      <c r="Z10">
+        <v>38.856084022377402</v>
+      </c>
+      <c r="AA10">
+        <v>37.613622737666397</v>
+      </c>
+      <c r="AB10">
+        <v>37.000345196475998</v>
+      </c>
+      <c r="AC10">
+        <v>40.016689961730002</v>
+      </c>
+      <c r="AD10">
+        <v>38.701382368153702</v>
+      </c>
+      <c r="AE10">
+        <v>35.727965527013701</v>
+      </c>
+      <c r="AF10">
+        <v>34.9791109833658</v>
+      </c>
+      <c r="AG10">
+        <v>35.732543302089297</v>
+      </c>
+      <c r="AH10">
+        <v>36.500991448572798</v>
+      </c>
+      <c r="AI10">
+        <v>37.284754693832603</v>
+      </c>
+      <c r="AJ10">
+        <v>38.084138269613902</v>
+      </c>
+      <c r="AK10">
+        <v>38.8994534841326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>30.978814519130498</v>
+      </c>
+      <c r="C11">
+        <v>34.031218109850101</v>
+      </c>
+      <c r="D11">
+        <v>36.880218518332299</v>
+      </c>
+      <c r="E11">
+        <v>37.076563899601098</v>
+      </c>
+      <c r="F11">
+        <v>37.258112403882201</v>
+      </c>
+      <c r="G11">
+        <v>37.421967743238199</v>
+      </c>
+      <c r="H11">
+        <v>37.547683845397103</v>
+      </c>
+      <c r="I11">
+        <v>37.657656758667997</v>
+      </c>
+      <c r="J11">
+        <v>36.918558488356602</v>
+      </c>
+      <c r="K11">
+        <v>37.096837915163697</v>
+      </c>
+      <c r="L11">
+        <v>37.068792671570698</v>
+      </c>
+      <c r="M11">
+        <v>37.038797451940702</v>
+      </c>
+      <c r="N11">
+        <v>37.004414786227002</v>
+      </c>
+      <c r="O11">
+        <v>36.965788055020802</v>
+      </c>
+      <c r="P11">
+        <v>37.0976121703549</v>
+      </c>
+      <c r="Q11">
+        <v>37.054397260237799</v>
+      </c>
+      <c r="R11">
+        <v>40.056671520462501</v>
+      </c>
+      <c r="S11">
+        <v>40.0013266123497</v>
+      </c>
+      <c r="T11">
+        <v>39.939845014943501</v>
+      </c>
+      <c r="U11">
+        <v>39.8710796835162</v>
+      </c>
+      <c r="V11">
+        <v>42.844448416602198</v>
+      </c>
+      <c r="W11">
+        <v>42.756298029276302</v>
+      </c>
+      <c r="X11">
+        <v>42.656275729018397</v>
+      </c>
+      <c r="Y11">
+        <v>42.542546244264202</v>
+      </c>
+      <c r="Z11">
+        <v>42.637980365611199</v>
+      </c>
+      <c r="AA11">
+        <v>42.506070221922499</v>
+      </c>
+      <c r="AB11">
+        <v>42.361628614583402</v>
+      </c>
+      <c r="AC11">
+        <v>48.293855964949699</v>
+      </c>
+      <c r="AD11">
+        <v>48.095015761398102</v>
+      </c>
+      <c r="AE11">
+        <v>47.858122349004098</v>
+      </c>
+      <c r="AF11">
+        <v>47.570328826817097</v>
+      </c>
+      <c r="AG11">
+        <v>47.526138928681398</v>
+      </c>
+      <c r="AH11">
+        <v>47.526138928681398</v>
+      </c>
+      <c r="AI11">
+        <v>47.526138928681398</v>
+      </c>
+      <c r="AJ11">
+        <v>47.526138928681398</v>
+      </c>
+      <c r="AK11">
+        <v>47.526138928681398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:AK14" si="0">B3/btu_per_EJ</f>
+        <v>3.2534468284018547E-5</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>3.5737832403189339E-5</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3.8702280150073783E-5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>3.8932947027500934E-5</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>3.8817163279941811E-5</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>3.8994337651509501E-5</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>3.9185374681930201E-5</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>3.9249493189401668E-5</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>3.8750424901854275E-5</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>3.8697157933611182E-5</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>3.8643108512727222E-5</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>3.858598946994448E-5</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>3.8524597031969414E-5</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>3.8455602036743121E-5</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>3.8379726843017881E-5</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>3.8288096649689652E-5</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>4.165972632377985E-5</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>4.1527352624345722E-5</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>4.1387140294163922E-5</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>4.1216192960242484E-5</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>4.4522641410497731E-5</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>4.409600747587288E-5</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="0"/>
+        <v>4.3872860563119181E-5</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="0"/>
+        <v>4.3218705168607418E-5</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>4.2355959582857818E-5</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="0"/>
+        <v>4.0298165334418315E-5</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="0"/>
+        <v>3.7909296844186139E-5</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="0"/>
+        <v>3.4612165929120589E-5</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="0"/>
+        <v>3.5361384822674651E-5</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="0"/>
+        <v>3.6125535573426656E-5</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="0"/>
+        <v>3.6904915774644164E-5</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="0"/>
+        <v>3.7699828952329217E-5</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="0"/>
+        <v>3.8510584666979533E-5</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="0"/>
+        <v>3.9337498666232791E-5</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="0"/>
+        <v>4.0180892986627953E-5</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="0"/>
+        <v>4.1041096075720387E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:AK15" si="1">B4/btu_per_EJ</f>
+        <v>3.2684379576442442E-5</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>3.5904835850454043E-5</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>3.8910055053500406E-5</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>3.9116998612867117E-5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>3.9307937326779875E-5</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>3.9480481057637784E-5</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>3.9613935449504121E-5</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>3.9727482112998762E-5</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>3.8933502605914002E-5</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>3.8879951421691985E-5</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>3.8825613609905036E-5</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>3.8768189797671407E-5</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>3.8706469788737519E-5</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>3.8641058681230087E-5</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>3.8567841807886946E-5</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>3.8487545286460116E-5</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>4.1919812492497818E-5</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>4.1830530263888033E-5</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>4.173108238674788E-5</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>4.1618201331192773E-5</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>4.4991380705148162E-5</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>4.4867033040090055E-5</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="1"/>
+        <v>4.4726741039390805E-5</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="1"/>
+        <v>4.4567237173165427E-5</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="1"/>
+        <v>4.4385072382091385E-5</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="1"/>
+        <v>4.4175738685123882E-5</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="1"/>
+        <v>4.3947193122630346E-5</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="1"/>
+        <v>5.0142731045712066E-5</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="1"/>
+        <v>5.0142731045712066E-5</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="1"/>
+        <v>5.0142731045712066E-5</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="1"/>
+        <v>5.0142731045712066E-5</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="1"/>
+        <v>5.0142731045712066E-5</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="1"/>
+        <v>5.0142731045712066E-5</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="1"/>
+        <v>5.0142731045712066E-5</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="1"/>
+        <v>5.0142731045712066E-5</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="1"/>
+        <v>5.0142731045712066E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="e">
+        <f t="shared" ref="B16:AK16" si="2">B5/btu_per_EJ</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C16" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>2.1409440039699114E-5</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>2.4389213948950193E-5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>2.3883030550930331E-5</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>2.1749481848994347E-5</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>2.5756427408434974E-5</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>2.336492986801209E-5</v>
+      </c>
+      <c r="J16" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K16" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L16" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>2.2574478419043644E-5</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>2.2971640945765467E-5</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>2.3468304652625816E-5</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>2.3932462349838967E-5</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>2.4394859968691324E-5</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>2.4863632610497585E-5</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>2.5459626496358705E-5</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="2"/>
+        <v>2.606450630512097E-5</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>2.6646401847303939E-5</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="2"/>
+        <v>2.7248294132678887E-5</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="2"/>
+        <v>2.7855714311710578E-5</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="2"/>
+        <v>2.8391126373664574E-5</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="2"/>
+        <v>2.9050959866771029E-5</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="2"/>
+        <v>2.980082686318496E-5</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="2"/>
+        <v>3.0469193469775478E-5</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="2"/>
+        <v>3.1157164251664075E-5</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="2"/>
+        <v>3.185914684886426E-5</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="2"/>
+        <v>3.2575426643184288E-5</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="2"/>
+        <v>3.3306294827051657E-5</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="2"/>
+        <v>3.4052048505275682E-5</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="2"/>
+        <v>3.4812990857866973E-5</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="2"/>
+        <v>3.55894312214466E-5</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="2"/>
+        <v>3.6381685262242366E-5</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="2"/>
+        <v>3.7190075037145769E-5</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="2"/>
+        <v>3.8014929197236589E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
-        <v>2.8253252776990242E-5</v>
-      </c>
-      <c r="C5" s="5">
-        <v>3.0744347032501953E-5</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3.4985017930235609E-5</v>
-      </c>
-      <c r="E5" s="5">
-        <v>3.5739618532370008E-5</v>
-      </c>
-      <c r="F5" s="5">
-        <v>3.6638598964810066E-5</v>
-      </c>
-      <c r="G5" s="5">
-        <v>3.7564713158422515E-5</v>
-      </c>
-      <c r="H5" s="5">
-        <v>3.8718014623406812E-5</v>
-      </c>
-      <c r="I5" s="5">
-        <v>3.9638394105958109E-5</v>
-      </c>
-      <c r="J5" s="5">
-        <v>3.9682113876317946E-5</v>
-      </c>
-      <c r="K5" s="5">
-        <v>3.9775010435516862E-5</v>
-      </c>
-      <c r="L5" s="5">
-        <v>3.9875110829745616E-5</v>
-      </c>
-      <c r="M5" s="5">
-        <v>3.9978818055343994E-5</v>
-      </c>
-      <c r="N5" s="5">
-        <v>4.0252454628952587E-5</v>
-      </c>
-      <c r="O5" s="5">
-        <v>4.0380000496402733E-5</v>
-      </c>
-      <c r="P5" s="5">
-        <v>4.0511247408460092E-5</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>4.2120493342685473E-5</v>
-      </c>
-      <c r="R5" s="5">
-        <v>4.2297454997702694E-5</v>
-      </c>
-      <c r="S5" s="5">
-        <v>4.2505985115570132E-5</v>
-      </c>
-      <c r="T5" s="5">
-        <v>4.2787300812999153E-5</v>
-      </c>
-      <c r="U5" s="5">
-        <v>4.4253939261542808E-5</v>
-      </c>
-      <c r="V5" s="5">
-        <v>4.4503408317243871E-5</v>
-      </c>
-      <c r="W5" s="5">
-        <v>4.4725484430191927E-5</v>
-      </c>
-      <c r="X5" s="5">
-        <v>4.506056839896357E-5</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>4.53991316464728E-5</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>4.5732492186623626E-5</v>
-      </c>
-      <c r="AA5" s="5">
-        <v>4.61649577016092E-5</v>
-      </c>
-      <c r="AB5" s="5">
-        <v>4.754582033656004E-5</v>
-      </c>
-      <c r="AC5" s="5">
-        <v>4.8200794143238162E-5</v>
-      </c>
-      <c r="AD5" s="5">
-        <v>4.8726578840594408E-5</v>
-      </c>
-      <c r="AE5" s="5">
-        <v>4.9263688902982497E-5</v>
-      </c>
-      <c r="AF5" s="5">
-        <v>4.9796385115326262E-5</v>
-      </c>
-      <c r="AG5" s="5">
-        <v>5.0360001747144752E-5</v>
-      </c>
-      <c r="AH5" s="5">
-        <v>5.0962525563754983E-5</v>
-      </c>
-      <c r="AI5" s="5">
-        <v>5.1603672891693307E-5</v>
-      </c>
-      <c r="AJ5" s="5">
-        <v>5.2283307250203552E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>1.1431925267128591E-5</v>
-      </c>
-      <c r="C6">
-        <v>1.1902956476946459E-5</v>
-      </c>
-      <c r="D6">
-        <v>1.1972000380697911E-5</v>
-      </c>
-      <c r="E6">
-        <v>1.2478205147539882E-5</v>
-      </c>
-      <c r="F6">
-        <v>1.2981736200149432E-5</v>
-      </c>
-      <c r="G6">
-        <v>1.3270872123942105E-5</v>
-      </c>
-      <c r="H6">
-        <v>1.3497611833869231E-5</v>
-      </c>
-      <c r="I6">
-        <v>1.3812424808310501E-5</v>
-      </c>
-      <c r="J6">
-        <v>1.4075205915843286E-5</v>
-      </c>
-      <c r="K6">
-        <v>1.4348174336770108E-5</v>
-      </c>
-      <c r="L6">
-        <v>1.4723602646560186E-5</v>
-      </c>
-      <c r="M6">
-        <v>1.4895496573036604E-5</v>
-      </c>
-      <c r="N6">
-        <v>1.5074715322174148E-5</v>
-      </c>
-      <c r="O6">
-        <v>1.5296921917454457E-5</v>
-      </c>
-      <c r="P6">
-        <v>1.5460352783469735E-5</v>
-      </c>
-      <c r="Q6">
-        <v>1.5866564200271606E-5</v>
-      </c>
-      <c r="R6">
-        <v>1.6235601539959543E-5</v>
-      </c>
-      <c r="S6">
-        <v>1.6605862598833353E-5</v>
-      </c>
-      <c r="T6">
-        <v>1.6981607352350859E-5</v>
-      </c>
-      <c r="U6">
-        <v>1.7329828946795778E-5</v>
-      </c>
-      <c r="V6">
-        <v>1.7690641696550106E-5</v>
-      </c>
-      <c r="W6">
-        <v>1.7984962317863927E-5</v>
-      </c>
-      <c r="X6">
-        <v>1.8375112736080948E-5</v>
-      </c>
-      <c r="Y6">
-        <v>1.8946577264677396E-5</v>
-      </c>
-      <c r="Z6">
-        <v>1.9636080007665125E-5</v>
-      </c>
-      <c r="AA6">
-        <v>2.0111473322876923E-5</v>
-      </c>
-      <c r="AB6">
-        <v>2.0599339684400403E-5</v>
-      </c>
-      <c r="AC6">
-        <v>2.110002346037245E-5</v>
-      </c>
-      <c r="AD6">
-        <v>2.1613878944727972E-5</v>
-      </c>
-      <c r="AE6">
-        <v>2.2141270651209605E-5</v>
-      </c>
-      <c r="AF6">
-        <v>2.2682573620319678E-5</v>
-      </c>
-      <c r="AG6">
-        <v>2.3238173731088635E-5</v>
-      </c>
-      <c r="AH6">
-        <v>2.3808468026832642E-5</v>
-      </c>
-      <c r="AI6">
-        <v>2.4393865048810831E-5</v>
-      </c>
-      <c r="AJ6">
-        <v>2.4994785167620474E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5">
-        <f>MAX(0,B4-B2)</f>
-        <v>5.2193734232523339E-6</v>
-      </c>
-      <c r="C9" s="5">
-        <f t="shared" ref="C9:AJ9" si="0">MAX(0,C4-C2)</f>
-        <v>5.9614159933163246E-6</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" si="0"/>
-        <v>7.3666939357137928E-6</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="0"/>
-        <v>7.0942149698894136E-6</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="0"/>
-        <v>7.1919228748654689E-6</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" si="0"/>
-        <v>7.4355779310026208E-6</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="0"/>
-        <v>7.7061479597356742E-6</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="0"/>
-        <v>7.6374529400673917E-6</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" si="0"/>
-        <v>7.8867855626870695E-6</v>
-      </c>
-      <c r="K9" s="5">
-        <f t="shared" si="0"/>
-        <v>7.8964718517503198E-6</v>
-      </c>
-      <c r="L9" s="5">
-        <f t="shared" si="0"/>
-        <v>8.0270275679563367E-6</v>
-      </c>
-      <c r="M9" s="5">
-        <f t="shared" si="0"/>
-        <v>8.1989029592520522E-6</v>
-      </c>
-      <c r="N9" s="5">
-        <f t="shared" si="0"/>
-        <v>8.3135494855915898E-6</v>
-      </c>
-      <c r="O9" s="5">
-        <f t="shared" si="0"/>
-        <v>8.514694083731096E-6</v>
-      </c>
-      <c r="P9" s="5">
-        <f t="shared" si="0"/>
-        <v>8.5282923227357642E-6</v>
-      </c>
-      <c r="Q9" s="5">
-        <f t="shared" si="0"/>
-        <v>8.686931243403345E-6</v>
-      </c>
-      <c r="R9" s="5">
-        <f t="shared" si="0"/>
-        <v>8.868719927798749E-6</v>
-      </c>
-      <c r="S9" s="5">
-        <f t="shared" si="0"/>
-        <v>8.4314556018641386E-6</v>
-      </c>
-      <c r="T9" s="5">
-        <f t="shared" si="0"/>
-        <v>8.4006843196860284E-6</v>
-      </c>
-      <c r="U9" s="5">
-        <f t="shared" si="0"/>
-        <v>8.1961621240009654E-6</v>
-      </c>
-      <c r="V9" s="5">
-        <f t="shared" si="0"/>
-        <v>7.9187051903726162E-6</v>
-      </c>
-      <c r="W9" s="5">
-        <f t="shared" si="0"/>
-        <v>7.9166916935072704E-6</v>
-      </c>
-      <c r="X9" s="5">
-        <f t="shared" si="0"/>
-        <v>7.4849773624984198E-6</v>
-      </c>
-      <c r="Y9" s="5">
-        <f t="shared" si="0"/>
-        <v>7.1583290339349468E-6</v>
-      </c>
-      <c r="Z9" s="5">
-        <f t="shared" si="0"/>
-        <v>6.034557202990274E-6</v>
-      </c>
-      <c r="AA9" s="5">
-        <f t="shared" si="0"/>
-        <v>6.3119054610362351E-6</v>
-      </c>
-      <c r="AB9" s="5">
-        <f t="shared" si="0"/>
-        <v>6.5351299548683701E-6</v>
-      </c>
-      <c r="AC9" s="5">
-        <f t="shared" si="0"/>
-        <v>6.8115376380577849E-6</v>
-      </c>
-      <c r="AD9" s="5">
-        <f t="shared" si="0"/>
-        <v>7.1493186758964984E-6</v>
-      </c>
-      <c r="AE9" s="5">
-        <f t="shared" si="0"/>
-        <v>7.5804733653982083E-6</v>
-      </c>
-      <c r="AF9" s="5">
-        <f t="shared" si="0"/>
-        <v>7.9958307906644133E-6</v>
-      </c>
-      <c r="AG9" s="5">
-        <f t="shared" si="0"/>
-        <v>8.5126160737142561E-6</v>
-      </c>
-      <c r="AH9" s="5">
-        <f t="shared" si="0"/>
-        <v>9.1479867170728274E-6</v>
-      </c>
-      <c r="AI9" s="5">
-        <f t="shared" si="0"/>
-        <v>9.9215744129959303E-6</v>
-      </c>
-      <c r="AJ9" s="5">
-        <f t="shared" si="0"/>
-        <v>1.0759185430411135E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5">
-        <f>MAX(0,B5-B3)</f>
-        <v>8.3096119729323798E-6</v>
-      </c>
-      <c r="C10" s="5">
-        <f t="shared" ref="C10:AJ10" si="1">MAX(0,C5-C3)</f>
-        <v>7.6971931718970313E-6</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="1"/>
-        <v>6.5246015570325098E-6</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="1"/>
-        <v>6.1340859004702993E-6</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="1"/>
-        <v>5.8217690348958542E-6</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" si="1"/>
-        <v>5.5768994115851282E-6</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="1"/>
-        <v>5.2721552596051056E-6</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="1"/>
-        <v>5.1363441923982017E-6</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" si="1"/>
-        <v>5.1022645731063022E-6</v>
-      </c>
-      <c r="K10" s="5">
-        <f t="shared" si="1"/>
-        <v>5.0831392255325025E-6</v>
-      </c>
-      <c r="L10" s="5">
-        <f t="shared" si="1"/>
-        <v>5.0625834542052919E-6</v>
-      </c>
-      <c r="M10" s="5">
-        <f t="shared" si="1"/>
-        <v>5.0418286680396589E-6</v>
-      </c>
-      <c r="N10" s="5">
-        <f t="shared" si="1"/>
-        <v>4.9801672386523595E-6</v>
-      </c>
-      <c r="O10" s="5">
-        <f t="shared" si="1"/>
-        <v>4.9303020419173173E-6</v>
-      </c>
-      <c r="P10" s="5">
-        <f t="shared" si="1"/>
-        <v>4.9035782796969112E-6</v>
-      </c>
-      <c r="Q10" s="5">
-        <f t="shared" si="1"/>
-        <v>4.5152974555630969E-6</v>
-      </c>
-      <c r="R10" s="5">
-        <f t="shared" si="1"/>
-        <v>4.481108844902343E-6</v>
-      </c>
-      <c r="S10" s="5">
-        <f t="shared" si="1"/>
-        <v>4.439398777197193E-6</v>
-      </c>
-      <c r="T10" s="5">
-        <f t="shared" si="1"/>
-        <v>4.381353922220772E-6</v>
-      </c>
-      <c r="U10" s="5">
-        <f t="shared" si="1"/>
-        <v>4.0352209376568664E-6</v>
-      </c>
-      <c r="V10" s="5">
-        <f t="shared" si="1"/>
-        <v>3.988126226480355E-6</v>
-      </c>
-      <c r="W10" s="5">
-        <f t="shared" si="1"/>
-        <v>3.9476296613743928E-6</v>
-      </c>
-      <c r="X10" s="5">
-        <f t="shared" si="1"/>
-        <v>3.8804653341359939E-6</v>
-      </c>
-      <c r="Y10" s="5">
-        <f t="shared" si="1"/>
-        <v>3.7795565832408936E-6</v>
-      </c>
-      <c r="Z10" s="5">
-        <f t="shared" si="1"/>
-        <v>3.7141249749180472E-6</v>
-      </c>
-      <c r="AA10" s="5">
-        <f t="shared" si="1"/>
-        <v>3.6388504847245854E-6</v>
-      </c>
-      <c r="AB10" s="5">
-        <f t="shared" si="1"/>
-        <v>3.3468085733600868E-6</v>
-      </c>
-      <c r="AC10" s="5">
-        <f t="shared" si="1"/>
-        <v>3.2363938217308899E-6</v>
-      </c>
-      <c r="AD10" s="5">
-        <f t="shared" si="1"/>
-        <v>3.167445682767654E-6</v>
-      </c>
-      <c r="AE10" s="5">
-        <f t="shared" si="1"/>
-        <v>3.1105880191697761E-6</v>
-      </c>
-      <c r="AF10" s="5">
-        <f t="shared" si="1"/>
-        <v>3.0005465311024637E-6</v>
-      </c>
-      <c r="AG10" s="5">
-        <f t="shared" si="1"/>
-        <v>2.8733273022604197E-6</v>
-      </c>
-      <c r="AH10" s="5">
-        <f t="shared" si="1"/>
-        <v>2.7373260441050355E-6</v>
-      </c>
-      <c r="AI10" s="5">
-        <f t="shared" si="1"/>
-        <v>2.5926054243535318E-6</v>
-      </c>
-      <c r="AJ10" s="5">
-        <f t="shared" si="1"/>
-        <v>2.4391988030169647E-6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2">
-        <f>MAX(0,B6-B2)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" ref="C11:AJ11" si="2">MAX(0,C6-C2)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="B17" t="e">
+        <f t="shared" ref="B17:AK17" si="3">B6/btu_per_EJ</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>3.4318294060856061E-5</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>3.4929649377579403E-5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>3.4922753202735881E-5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>3.5329274053872647E-5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>3.5462843163267301E-5</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>3.7559371725682696E-5</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>3.4017814501292296E-5</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>3.5456794124053592E-5</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>3.5541109135681677E-5</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>3.4327459219902568E-5</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>3.4395953930841428E-5</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>3.4372636108862221E-5</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>3.5869354692678167E-5</v>
+      </c>
+      <c r="Q17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="3"/>
+        <v>4.4243592873182117E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:AK18" si="4">B7/btu_per_EJ</f>
+        <v>1.6202771517590864E-5</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="4"/>
+        <v>1.8915267376315273E-5</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>1.9925204798944127E-5</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>2.0060193613214753E-5</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>2.0208212888926191E-5</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>2.0551826212060509E-5</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>2.092966297276293E-5</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>2.1232098432175502E-5</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>2.1529302391352033E-5</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>2.1819722505545479E-5</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>2.2202830864019846E-5</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>2.2574842331297094E-5</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>2.2971795941127227E-5</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>2.346845654044158E-5</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>2.3932622398539605E-5</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>2.4394859968691324E-5</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="4"/>
+        <v>2.4863632610497585E-5</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="4"/>
+        <v>2.5459626496358705E-5</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="4"/>
+        <v>2.606450630512097E-5</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="4"/>
+        <v>2.6646401847303939E-5</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="4"/>
+        <v>2.7248294132678887E-5</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="4"/>
+        <v>2.7855714311710578E-5</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="4"/>
+        <v>2.8391126373664574E-5</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="4"/>
+        <v>2.9050959866771029E-5</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="4"/>
+        <v>2.980082686318496E-5</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="4"/>
+        <v>3.0469193469775478E-5</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="4"/>
+        <v>3.1157164251664075E-5</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="4"/>
+        <v>3.185914684886426E-5</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="4"/>
+        <v>3.2575426643184288E-5</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="4"/>
+        <v>3.3306294827051657E-5</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="4"/>
+        <v>3.4052048505275682E-5</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="4"/>
+        <v>3.4812990857866973E-5</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="4"/>
+        <v>3.55894312214466E-5</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="4"/>
+        <v>3.6381685262242366E-5</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="4"/>
+        <v>3.7190075037145769E-5</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="4"/>
+        <v>3.8015253525197351E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:AK19" si="5">B8/btu_per_EJ</f>
+        <v>1.7551132278158152E-5</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="5"/>
+        <v>2.0176808701133611E-5</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>2.3231602523694866E-5</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>2.3761198167222491E-5</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>2.4561673017219928E-5</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>2.5515011770568887E-5</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>2.6497153930290583E-5</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="5"/>
+        <v>2.772006414520778E-5</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>2.8605925463379367E-5</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>2.8671178338332292E-5</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>2.8765134749910194E-5</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>2.8866332994762323E-5</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="5"/>
+        <v>2.8970723326439491E-5</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="5"/>
+        <v>2.925194865172028E-5</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>2.9400749073399202E-5</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="5"/>
+        <v>2.9533244208656942E-5</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="5"/>
+        <v>3.1208634778709106E-5</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="5"/>
+        <v>3.1385733364497993E-5</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="5"/>
+        <v>3.159561793570684E-5</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="5"/>
+        <v>3.1880250653125256E-5</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="5"/>
+        <v>3.3400680931207279E-5</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="5"/>
+        <v>3.3649418594603569E-5</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="5"/>
+        <v>3.3869646827804504E-5</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="5"/>
+        <v>3.4207025538319675E-5</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="5"/>
+        <v>3.4575624977024262E-5</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="5"/>
+        <v>3.4910104904348212E-5</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="5"/>
+        <v>3.5335962937616282E-5</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="5"/>
+        <v>3.6739082314998908E-5</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="5"/>
+        <v>3.7381038557961687E-5</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="5"/>
+        <v>3.7879860304153716E-5</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="5"/>
+        <v>3.8378040327458953E-5</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="5"/>
+        <v>3.8917125312318058E-5</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="5"/>
+        <v>3.9496551786362013E-5</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="5"/>
+        <v>4.0115976753177347E-5</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="5"/>
+        <v>4.0775109725166814E-5</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="5"/>
+        <v>4.1473808251362669E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20:AK20" si="6">B9/btu_per_EJ</f>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21:AK21" si="7">B10/btu_per_EJ</f>
+        <v>3.2534468284018547E-5</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="7"/>
+        <v>3.5737832403189339E-5</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="7"/>
+        <v>3.8702911199423575E-5</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="7"/>
+        <v>3.8933789668806468E-5</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="7"/>
+        <v>3.8818500756131412E-5</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="7"/>
+        <v>3.8996058362820982E-5</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
+        <v>3.9180888790480071E-5</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="7"/>
+        <v>3.9252777251332621E-5</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="7"/>
+        <v>3.876796989760894E-5</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="7"/>
+        <v>3.8955066361771352E-5</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="7"/>
+        <v>3.892563410474206E-5</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="7"/>
+        <v>3.8894155433113717E-5</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="7"/>
+        <v>3.8858072328637091E-5</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="7"/>
+        <v>3.8800732816407668E-5</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="7"/>
+        <v>3.8930946033858302E-5</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="7"/>
+        <v>3.8788921528331964E-5</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="7"/>
+        <v>4.1713392353940595E-5</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="7"/>
+        <v>4.1622568678008901E-5</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="7"/>
+        <v>4.1398350978222789E-5</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="7"/>
+        <v>4.1106147585989588E-5</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="7"/>
+        <v>4.3333611971477894E-5</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="7"/>
+        <v>4.2828859173333252E-5</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="7"/>
+        <v>4.1901977294732659E-5</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="7"/>
+        <v>4.0670534412304667E-5</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="7"/>
+        <v>4.0995338871255461E-5</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="7"/>
+        <v>3.9684472820734024E-5</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="7"/>
+        <v>3.9037430761406795E-5</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="7"/>
+        <v>4.2219842960559737E-5</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="7"/>
+        <v>4.0832119985502794E-5</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="7"/>
+        <v>3.7694999143942138E-5</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="7"/>
+        <v>3.6904915774644164E-5</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="7"/>
+        <v>3.7699828952329217E-5</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="7"/>
+        <v>3.8510584666979635E-5</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="7"/>
+        <v>3.9337498666232791E-5</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="7"/>
+        <v>4.0180892986627953E-5</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="7"/>
+        <v>4.1041096075720387E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:AK22" si="8">B11/btu_per_EJ</f>
+        <v>3.2684379576442442E-5</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="8"/>
+        <v>3.5904835850454043E-5</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="8"/>
+        <v>3.8910690406533591E-5</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="8"/>
+        <v>3.9117845750244623E-5</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="8"/>
+        <v>3.930938956228413E-5</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="8"/>
+        <v>3.9482266097111853E-5</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="8"/>
+        <v>3.9614903606507026E-5</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="8"/>
+        <v>3.9730931172321509E-5</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="8"/>
+        <v>3.8951141216310381E-5</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="8"/>
+        <v>3.913923596902712E-5</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="8"/>
+        <v>3.9109646670626398E-5</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="8"/>
+        <v>3.9078000038594684E-5</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="8"/>
+        <v>3.9041724405892776E-5</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="8"/>
+        <v>3.9000971047052621E-5</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="8"/>
+        <v>3.9140052851498292E-5</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="8"/>
+        <v>3.909445870764373E-5</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="8"/>
+        <v>4.2262025738111271E-5</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="8"/>
+        <v>4.2203633768874846E-5</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="8"/>
+        <v>4.2138767249681562E-5</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="8"/>
+        <v>4.2066215984277853E-5</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="8"/>
+        <v>4.5203286069154565E-5</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="8"/>
+        <v>4.5110282487064909E-5</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="8"/>
+        <v>4.5004753373750413E-5</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="8"/>
+        <v>4.4884762415205377E-5</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="8"/>
+        <v>4.4985450743505458E-5</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="8"/>
+        <v>4.4846278174340744E-5</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="8"/>
+        <v>4.469388421110541E-5</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="8"/>
+        <v>5.0952715398250774E-5</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="8"/>
+        <v>5.0742927877688159E-5</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="8"/>
+        <v>5.049299209641212E-5</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="8"/>
+        <v>5.0189353856382228E-5</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="8"/>
+        <v>5.0142731045712066E-5</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="8"/>
+        <v>5.0142731045712066E-5</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="8"/>
+        <v>5.0142731045712066E-5</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="8"/>
+        <v>5.0142731045712066E-5</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="8"/>
+        <v>5.0142731045712066E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>2015</v>
+      </c>
+      <c r="C31">
+        <v>2016</v>
+      </c>
+      <c r="D31">
+        <v>2017</v>
+      </c>
+      <c r="E31">
+        <v>2018</v>
+      </c>
+      <c r="F31">
+        <v>2019</v>
+      </c>
+      <c r="G31">
+        <v>2020</v>
+      </c>
+      <c r="H31">
+        <v>2021</v>
+      </c>
+      <c r="I31">
+        <v>2022</v>
+      </c>
+      <c r="J31">
+        <v>2023</v>
+      </c>
+      <c r="K31">
+        <v>2024</v>
+      </c>
+      <c r="L31">
+        <v>2025</v>
+      </c>
+      <c r="M31">
+        <v>2026</v>
+      </c>
+      <c r="N31">
+        <v>2027</v>
+      </c>
+      <c r="O31">
+        <v>2028</v>
+      </c>
+      <c r="P31">
+        <v>2029</v>
+      </c>
+      <c r="Q31">
+        <v>2030</v>
+      </c>
+      <c r="R31">
+        <v>2031</v>
+      </c>
+      <c r="S31">
+        <v>2032</v>
+      </c>
+      <c r="T31">
+        <v>2033</v>
+      </c>
+      <c r="U31">
+        <v>2034</v>
+      </c>
+      <c r="V31">
+        <v>2035</v>
+      </c>
+      <c r="W31">
+        <v>2036</v>
+      </c>
+      <c r="X31">
+        <v>2037</v>
+      </c>
+      <c r="Y31">
+        <v>2038</v>
+      </c>
+      <c r="Z31">
+        <v>2039</v>
+      </c>
+      <c r="AA31">
+        <v>2040</v>
+      </c>
+      <c r="AB31">
+        <v>2041</v>
+      </c>
+      <c r="AC31">
+        <v>2042</v>
+      </c>
+      <c r="AD31">
+        <v>2043</v>
+      </c>
+      <c r="AE31">
+        <v>2044</v>
+      </c>
+      <c r="AF31">
+        <v>2045</v>
+      </c>
+      <c r="AG31">
+        <v>2046</v>
+      </c>
+      <c r="AH31">
+        <v>2047</v>
+      </c>
+      <c r="AI31">
+        <v>2048</v>
+      </c>
+      <c r="AJ31">
+        <v>2049</v>
+      </c>
+      <c r="AK31">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <f>B21-B19</f>
+        <v>1.4983336005860395E-5</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:AK35" si="9">C21-C19</f>
+        <v>1.5561023702055728E-5</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="9"/>
+        <v>1.547130867572871E-5</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="9"/>
+        <v>1.5172591501583976E-5</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="9"/>
+        <v>1.4256827738911485E-5</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="9"/>
+        <v>1.3481046592252095E-5</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="9"/>
+        <v>1.2683734860189488E-5</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="9"/>
+        <v>1.153271310612484E-5</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="9"/>
+        <v>1.0162044434229573E-5</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="9"/>
+        <v>1.0283888023439061E-5</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="9"/>
+        <v>1.0160499354831865E-5</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="9"/>
+        <v>1.0027822438351394E-5</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="9"/>
+        <v>9.8873490021975999E-6</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="9"/>
+        <v>9.5487841646873881E-6</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="9"/>
+        <v>9.5301969604591001E-6</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="9"/>
+        <v>9.2556773196750223E-6</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="9"/>
+        <v>1.050475757523149E-5</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="9"/>
+        <v>1.0236835313510908E-5</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="9"/>
+        <v>9.8027330425159485E-6</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="9"/>
+        <v>9.2258969328643323E-6</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="9"/>
+        <v>9.9329310402706153E-6</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="9"/>
+        <v>9.1794405787296826E-6</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="9"/>
+        <v>8.0323304669281553E-6</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="9"/>
+        <v>6.4635088739849921E-6</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="9"/>
+        <v>6.4197138942311997E-6</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="9"/>
+        <v>4.7743679163858121E-6</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="9"/>
+        <v>3.7014678237905137E-6</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="9"/>
+        <v>5.4807606455608285E-6</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="9"/>
+        <v>3.4510814275411062E-6</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="9"/>
+        <v>-1.8486116021157808E-7</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="9"/>
+        <v>-1.4731245528147894E-6</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="9"/>
+        <v>-1.2172963599888417E-6</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="9"/>
+        <v>-9.8596711938237885E-7</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="9"/>
+        <v>-7.7847808694455668E-7</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="9"/>
+        <v>-5.9421673853886088E-7</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="9"/>
+        <v>-4.3271217564228297E-7</v>
       </c>
     </row>
   </sheetData>
@@ -1833,23 +3760,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF002060"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="37" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B1">
         <v>2015</v>
       </c>
@@ -1961,233 +3889,305 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2">
+        <f>Calcs!B32</f>
         <v>0</v>
       </c>
       <c r="C2">
+        <f>Calcs!C32</f>
         <v>0</v>
       </c>
       <c r="D2">
+        <f>Calcs!D32</f>
         <v>0</v>
       </c>
       <c r="E2">
+        <f>Calcs!E32</f>
         <v>0</v>
       </c>
       <c r="F2">
+        <f>Calcs!F32</f>
         <v>0</v>
       </c>
       <c r="G2">
+        <f>Calcs!G32</f>
         <v>0</v>
       </c>
       <c r="H2">
+        <f>Calcs!H32</f>
         <v>0</v>
       </c>
       <c r="I2">
+        <f>Calcs!I32</f>
         <v>0</v>
       </c>
       <c r="J2">
+        <f>Calcs!J32</f>
         <v>0</v>
       </c>
       <c r="K2">
+        <f>Calcs!K32</f>
         <v>0</v>
       </c>
       <c r="L2">
+        <f>Calcs!L32</f>
         <v>0</v>
       </c>
       <c r="M2">
+        <f>Calcs!M32</f>
         <v>0</v>
       </c>
       <c r="N2">
+        <f>Calcs!N32</f>
         <v>0</v>
       </c>
       <c r="O2">
+        <f>Calcs!O32</f>
         <v>0</v>
       </c>
       <c r="P2">
+        <f>Calcs!P32</f>
         <v>0</v>
       </c>
       <c r="Q2">
+        <f>Calcs!Q32</f>
         <v>0</v>
       </c>
       <c r="R2">
+        <f>Calcs!R32</f>
         <v>0</v>
       </c>
       <c r="S2">
+        <f>Calcs!S32</f>
         <v>0</v>
       </c>
       <c r="T2">
+        <f>Calcs!T32</f>
         <v>0</v>
       </c>
       <c r="U2">
+        <f>Calcs!U32</f>
         <v>0</v>
       </c>
       <c r="V2">
+        <f>Calcs!V32</f>
         <v>0</v>
       </c>
       <c r="W2">
+        <f>Calcs!W32</f>
         <v>0</v>
       </c>
       <c r="X2">
+        <f>Calcs!X32</f>
         <v>0</v>
       </c>
       <c r="Y2">
+        <f>Calcs!Y32</f>
         <v>0</v>
       </c>
       <c r="Z2">
+        <f>Calcs!Z32</f>
         <v>0</v>
       </c>
       <c r="AA2">
+        <f>Calcs!AA32</f>
         <v>0</v>
       </c>
       <c r="AB2">
+        <f>Calcs!AB32</f>
         <v>0</v>
       </c>
       <c r="AC2">
+        <f>Calcs!AC32</f>
         <v>0</v>
       </c>
       <c r="AD2">
+        <f>Calcs!AD32</f>
         <v>0</v>
       </c>
       <c r="AE2">
+        <f>Calcs!AE32</f>
         <v>0</v>
       </c>
       <c r="AF2">
+        <f>Calcs!AF32</f>
         <v>0</v>
       </c>
       <c r="AG2">
+        <f>Calcs!AG32</f>
         <v>0</v>
       </c>
       <c r="AH2">
+        <f>Calcs!AH32</f>
         <v>0</v>
       </c>
       <c r="AI2">
+        <f>Calcs!AI32</f>
         <v>0</v>
       </c>
       <c r="AJ2">
+        <f>Calcs!AJ32</f>
         <v>0</v>
       </c>
       <c r="AK2">
+        <f>Calcs!AK32</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B3">
+        <f>Calcs!B33</f>
         <v>0</v>
       </c>
       <c r="C3">
+        <f>Calcs!C33</f>
         <v>0</v>
       </c>
       <c r="D3">
+        <f>Calcs!D33</f>
         <v>0</v>
       </c>
       <c r="E3">
+        <f>Calcs!E33</f>
         <v>0</v>
       </c>
       <c r="F3">
+        <f>Calcs!F33</f>
         <v>0</v>
       </c>
       <c r="G3">
+        <f>Calcs!G33</f>
         <v>0</v>
       </c>
       <c r="H3">
+        <f>Calcs!H33</f>
         <v>0</v>
       </c>
       <c r="I3">
+        <f>Calcs!I33</f>
         <v>0</v>
       </c>
       <c r="J3">
+        <f>Calcs!J33</f>
         <v>0</v>
       </c>
       <c r="K3">
+        <f>Calcs!K33</f>
         <v>0</v>
       </c>
       <c r="L3">
+        <f>Calcs!L33</f>
         <v>0</v>
       </c>
       <c r="M3">
+        <f>Calcs!M33</f>
         <v>0</v>
       </c>
       <c r="N3">
+        <f>Calcs!N33</f>
         <v>0</v>
       </c>
       <c r="O3">
+        <f>Calcs!O33</f>
         <v>0</v>
       </c>
       <c r="P3">
+        <f>Calcs!P33</f>
         <v>0</v>
       </c>
       <c r="Q3">
+        <f>Calcs!Q33</f>
         <v>0</v>
       </c>
       <c r="R3">
+        <f>Calcs!R33</f>
         <v>0</v>
       </c>
       <c r="S3">
+        <f>Calcs!S33</f>
         <v>0</v>
       </c>
       <c r="T3">
+        <f>Calcs!T33</f>
         <v>0</v>
       </c>
       <c r="U3">
+        <f>Calcs!U33</f>
         <v>0</v>
       </c>
       <c r="V3">
+        <f>Calcs!V33</f>
         <v>0</v>
       </c>
       <c r="W3">
+        <f>Calcs!W33</f>
         <v>0</v>
       </c>
       <c r="X3">
+        <f>Calcs!X33</f>
         <v>0</v>
       </c>
       <c r="Y3">
+        <f>Calcs!Y33</f>
         <v>0</v>
       </c>
       <c r="Z3">
+        <f>Calcs!Z33</f>
         <v>0</v>
       </c>
       <c r="AA3">
+        <f>Calcs!AA33</f>
         <v>0</v>
       </c>
       <c r="AB3">
+        <f>Calcs!AB33</f>
         <v>0</v>
       </c>
       <c r="AC3">
+        <f>Calcs!AC33</f>
         <v>0</v>
       </c>
       <c r="AD3">
+        <f>Calcs!AD33</f>
         <v>0</v>
       </c>
       <c r="AE3">
+        <f>Calcs!AE33</f>
         <v>0</v>
       </c>
       <c r="AF3">
+        <f>Calcs!AF33</f>
         <v>0</v>
       </c>
       <c r="AG3">
+        <f>Calcs!AG33</f>
         <v>0</v>
       </c>
       <c r="AH3">
+        <f>Calcs!AH33</f>
         <v>0</v>
       </c>
       <c r="AI3">
+        <f>Calcs!AI33</f>
         <v>0</v>
       </c>
       <c r="AJ3">
+        <f>Calcs!AJ33</f>
         <v>0</v>
       </c>
       <c r="AK3">
+        <f>Calcs!AK33</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <f>0</f>
@@ -2336,7 +4336,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <f>0</f>
@@ -2485,305 +4485,305 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6">
-        <f>C6</f>
-        <v>5.2193734232523339E-6</v>
-      </c>
-      <c r="C6" s="6">
-        <f>Calcs!B9</f>
-        <v>5.2193734232523339E-6</v>
-      </c>
-      <c r="D6" s="6">
-        <f>Calcs!C9</f>
-        <v>5.9614159933163246E-6</v>
-      </c>
-      <c r="E6" s="6">
-        <f>Calcs!D9</f>
-        <v>7.3666939357137928E-6</v>
-      </c>
-      <c r="F6" s="6">
-        <f>Calcs!E9</f>
-        <v>7.0942149698894136E-6</v>
-      </c>
-      <c r="G6" s="6">
-        <f>Calcs!F9</f>
-        <v>7.1919228748654689E-6</v>
-      </c>
-      <c r="H6" s="6">
-        <f>Calcs!G9</f>
-        <v>7.4355779310026208E-6</v>
-      </c>
-      <c r="I6" s="6">
-        <f>Calcs!H9</f>
-        <v>7.7061479597356742E-6</v>
-      </c>
-      <c r="J6" s="6">
-        <f>Calcs!I9</f>
-        <v>7.6374529400673917E-6</v>
-      </c>
-      <c r="K6" s="6">
-        <f>Calcs!J9</f>
-        <v>7.8867855626870695E-6</v>
-      </c>
-      <c r="L6" s="6">
-        <f>Calcs!K9</f>
-        <v>7.8964718517503198E-6</v>
-      </c>
-      <c r="M6" s="6">
-        <f>Calcs!L9</f>
-        <v>8.0270275679563367E-6</v>
-      </c>
-      <c r="N6" s="6">
-        <f>Calcs!M9</f>
-        <v>8.1989029592520522E-6</v>
-      </c>
-      <c r="O6" s="6">
-        <f>Calcs!N9</f>
-        <v>8.3135494855915898E-6</v>
-      </c>
-      <c r="P6" s="6">
-        <f>Calcs!O9</f>
-        <v>8.514694083731096E-6</v>
-      </c>
-      <c r="Q6" s="6">
-        <f>Calcs!P9</f>
-        <v>8.5282923227357642E-6</v>
-      </c>
-      <c r="R6" s="6">
-        <f>Calcs!Q9</f>
-        <v>8.686931243403345E-6</v>
-      </c>
-      <c r="S6" s="6">
-        <f>Calcs!R9</f>
-        <v>8.868719927798749E-6</v>
-      </c>
-      <c r="T6" s="6">
-        <f>Calcs!S9</f>
-        <v>8.4314556018641386E-6</v>
-      </c>
-      <c r="U6" s="6">
-        <f>Calcs!T9</f>
-        <v>8.4006843196860284E-6</v>
-      </c>
-      <c r="V6" s="6">
-        <f>Calcs!U9</f>
-        <v>8.1961621240009654E-6</v>
-      </c>
-      <c r="W6" s="6">
-        <f>Calcs!V9</f>
-        <v>7.9187051903726162E-6</v>
-      </c>
-      <c r="X6" s="6">
-        <f>Calcs!W9</f>
-        <v>7.9166916935072704E-6</v>
-      </c>
-      <c r="Y6" s="6">
-        <f>Calcs!X9</f>
-        <v>7.4849773624984198E-6</v>
-      </c>
-      <c r="Z6" s="6">
-        <f>Calcs!Y9</f>
-        <v>7.1583290339349468E-6</v>
-      </c>
-      <c r="AA6" s="6">
-        <f>Calcs!Z9</f>
-        <v>6.034557202990274E-6</v>
-      </c>
-      <c r="AB6" s="6">
-        <f>Calcs!AA9</f>
-        <v>6.3119054610362351E-6</v>
-      </c>
-      <c r="AC6" s="6">
-        <f>Calcs!AB9</f>
-        <v>6.5351299548683701E-6</v>
-      </c>
-      <c r="AD6" s="6">
-        <f>Calcs!AC9</f>
-        <v>6.8115376380577849E-6</v>
-      </c>
-      <c r="AE6" s="6">
-        <f>Calcs!AD9</f>
-        <v>7.1493186758964984E-6</v>
-      </c>
-      <c r="AF6" s="6">
-        <f>Calcs!AE9</f>
-        <v>7.5804733653982083E-6</v>
-      </c>
-      <c r="AG6" s="6">
-        <f>Calcs!AF9</f>
-        <v>7.9958307906644133E-6</v>
-      </c>
-      <c r="AH6" s="6">
-        <f>Calcs!AG9</f>
-        <v>8.5126160737142561E-6</v>
-      </c>
-      <c r="AI6" s="6">
-        <f>Calcs!AH9</f>
-        <v>9.1479867170728274E-6</v>
-      </c>
-      <c r="AJ6" s="6">
-        <f>Calcs!AI9</f>
-        <v>9.9215744129959303E-6</v>
-      </c>
-      <c r="AK6" s="6">
-        <f>Calcs!AJ9</f>
-        <v>1.0759185430411135E-5</v>
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <f>Calcs!B34</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>Calcs!C34</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>Calcs!D34</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>Calcs!E34</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>Calcs!F34</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>Calcs!G34</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>Calcs!H34</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>Calcs!I34</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>Calcs!J34</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>Calcs!K34</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>Calcs!L34</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f>Calcs!M34</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>Calcs!N34</f>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>Calcs!O34</f>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>Calcs!P34</f>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f>Calcs!Q34</f>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f>Calcs!R34</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f>Calcs!S34</f>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f>Calcs!T34</f>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f>Calcs!U34</f>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f>Calcs!V34</f>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f>Calcs!W34</f>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f>Calcs!X34</f>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f>Calcs!Y34</f>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f>Calcs!Z34</f>
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f>Calcs!AA34</f>
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <f>Calcs!AB34</f>
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <f>Calcs!AC34</f>
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <f>Calcs!AD34</f>
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <f>Calcs!AE34</f>
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <f>Calcs!AF34</f>
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <f>Calcs!AG34</f>
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <f>Calcs!AH34</f>
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <f>Calcs!AI34</f>
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <f>Calcs!AJ34</f>
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <f>Calcs!AK34</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6">
-        <f>C7</f>
-        <v>8.3096119729323798E-6</v>
-      </c>
-      <c r="C7" s="6">
-        <f>Calcs!B10</f>
-        <v>8.3096119729323798E-6</v>
-      </c>
-      <c r="D7" s="6">
-        <f>Calcs!C10</f>
-        <v>7.6971931718970313E-6</v>
-      </c>
-      <c r="E7" s="6">
-        <f>Calcs!D10</f>
-        <v>6.5246015570325098E-6</v>
-      </c>
-      <c r="F7" s="6">
-        <f>Calcs!E10</f>
-        <v>6.1340859004702993E-6</v>
-      </c>
-      <c r="G7" s="6">
-        <f>Calcs!F10</f>
-        <v>5.8217690348958542E-6</v>
-      </c>
-      <c r="H7" s="6">
-        <f>Calcs!G10</f>
-        <v>5.5768994115851282E-6</v>
-      </c>
-      <c r="I7" s="6">
-        <f>Calcs!H10</f>
-        <v>5.2721552596051056E-6</v>
-      </c>
-      <c r="J7" s="6">
-        <f>Calcs!I10</f>
-        <v>5.1363441923982017E-6</v>
-      </c>
-      <c r="K7" s="6">
-        <f>Calcs!J10</f>
-        <v>5.1022645731063022E-6</v>
-      </c>
-      <c r="L7" s="6">
-        <f>Calcs!K10</f>
-        <v>5.0831392255325025E-6</v>
-      </c>
-      <c r="M7" s="6">
-        <f>Calcs!L10</f>
-        <v>5.0625834542052919E-6</v>
-      </c>
-      <c r="N7" s="6">
-        <f>Calcs!M10</f>
-        <v>5.0418286680396589E-6</v>
-      </c>
-      <c r="O7" s="6">
-        <f>Calcs!N10</f>
-        <v>4.9801672386523595E-6</v>
-      </c>
-      <c r="P7" s="6">
-        <f>Calcs!O10</f>
-        <v>4.9303020419173173E-6</v>
-      </c>
-      <c r="Q7" s="6">
-        <f>Calcs!P10</f>
-        <v>4.9035782796969112E-6</v>
-      </c>
-      <c r="R7" s="6">
-        <f>Calcs!Q10</f>
-        <v>4.5152974555630969E-6</v>
-      </c>
-      <c r="S7" s="6">
-        <f>Calcs!R10</f>
-        <v>4.481108844902343E-6</v>
-      </c>
-      <c r="T7" s="6">
-        <f>Calcs!S10</f>
-        <v>4.439398777197193E-6</v>
-      </c>
-      <c r="U7" s="6">
-        <f>Calcs!T10</f>
-        <v>4.381353922220772E-6</v>
-      </c>
-      <c r="V7" s="6">
-        <f>Calcs!U10</f>
-        <v>4.0352209376568664E-6</v>
-      </c>
-      <c r="W7" s="6">
-        <f>Calcs!V10</f>
-        <v>3.988126226480355E-6</v>
-      </c>
-      <c r="X7" s="6">
-        <f>Calcs!W10</f>
-        <v>3.9476296613743928E-6</v>
-      </c>
-      <c r="Y7" s="6">
-        <f>Calcs!X10</f>
-        <v>3.8804653341359939E-6</v>
-      </c>
-      <c r="Z7" s="6">
-        <f>Calcs!Y10</f>
-        <v>3.7795565832408936E-6</v>
-      </c>
-      <c r="AA7" s="6">
-        <f>Calcs!Z10</f>
-        <v>3.7141249749180472E-6</v>
-      </c>
-      <c r="AB7" s="6">
-        <f>Calcs!AA10</f>
-        <v>3.6388504847245854E-6</v>
-      </c>
-      <c r="AC7" s="6">
-        <f>Calcs!AB10</f>
-        <v>3.3468085733600868E-6</v>
-      </c>
-      <c r="AD7" s="6">
-        <f>Calcs!AC10</f>
-        <v>3.2363938217308899E-6</v>
-      </c>
-      <c r="AE7" s="6">
-        <f>Calcs!AD10</f>
-        <v>3.167445682767654E-6</v>
-      </c>
-      <c r="AF7" s="6">
-        <f>Calcs!AE10</f>
-        <v>3.1105880191697761E-6</v>
-      </c>
-      <c r="AG7" s="6">
-        <f>Calcs!AF10</f>
-        <v>3.0005465311024637E-6</v>
-      </c>
-      <c r="AH7" s="6">
-        <f>Calcs!AG10</f>
-        <v>2.8733273022604197E-6</v>
-      </c>
-      <c r="AI7" s="6">
-        <f>Calcs!AH10</f>
-        <v>2.7373260441050355E-6</v>
-      </c>
-      <c r="AJ7" s="6">
-        <f>Calcs!AI10</f>
-        <v>2.5926054243535318E-6</v>
-      </c>
-      <c r="AK7" s="6">
-        <f>Calcs!AJ10</f>
-        <v>2.4391988030169647E-6</v>
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <f>MAX(Calcs!B35,0)</f>
+        <v>1.4983336005860395E-5</v>
+      </c>
+      <c r="C7">
+        <f>MAX(Calcs!C35,0)</f>
+        <v>1.5561023702055728E-5</v>
+      </c>
+      <c r="D7">
+        <f>MAX(Calcs!D35,0)</f>
+        <v>1.547130867572871E-5</v>
+      </c>
+      <c r="E7">
+        <f>MAX(Calcs!E35,0)</f>
+        <v>1.5172591501583976E-5</v>
+      </c>
+      <c r="F7">
+        <f>MAX(Calcs!F35,0)</f>
+        <v>1.4256827738911485E-5</v>
+      </c>
+      <c r="G7">
+        <f>MAX(Calcs!G35,0)</f>
+        <v>1.3481046592252095E-5</v>
+      </c>
+      <c r="H7">
+        <f>MAX(Calcs!H35,0)</f>
+        <v>1.2683734860189488E-5</v>
+      </c>
+      <c r="I7">
+        <f>MAX(Calcs!I35,0)</f>
+        <v>1.153271310612484E-5</v>
+      </c>
+      <c r="J7">
+        <f>MAX(Calcs!J35,0)</f>
+        <v>1.0162044434229573E-5</v>
+      </c>
+      <c r="K7">
+        <f>MAX(Calcs!K35,0)</f>
+        <v>1.0283888023439061E-5</v>
+      </c>
+      <c r="L7">
+        <f>MAX(Calcs!L35,0)</f>
+        <v>1.0160499354831865E-5</v>
+      </c>
+      <c r="M7">
+        <f>MAX(Calcs!M35,0)</f>
+        <v>1.0027822438351394E-5</v>
+      </c>
+      <c r="N7">
+        <f>MAX(Calcs!N35,0)</f>
+        <v>9.8873490021975999E-6</v>
+      </c>
+      <c r="O7">
+        <f>MAX(Calcs!O35,0)</f>
+        <v>9.5487841646873881E-6</v>
+      </c>
+      <c r="P7">
+        <f>MAX(Calcs!P35,0)</f>
+        <v>9.5301969604591001E-6</v>
+      </c>
+      <c r="Q7">
+        <f>MAX(Calcs!Q35,0)</f>
+        <v>9.2556773196750223E-6</v>
+      </c>
+      <c r="R7">
+        <f>MAX(Calcs!R35,0)</f>
+        <v>1.050475757523149E-5</v>
+      </c>
+      <c r="S7">
+        <f>MAX(Calcs!S35,0)</f>
+        <v>1.0236835313510908E-5</v>
+      </c>
+      <c r="T7">
+        <f>MAX(Calcs!T35,0)</f>
+        <v>9.8027330425159485E-6</v>
+      </c>
+      <c r="U7">
+        <f>MAX(Calcs!U35,0)</f>
+        <v>9.2258969328643323E-6</v>
+      </c>
+      <c r="V7">
+        <f>MAX(Calcs!V35,0)</f>
+        <v>9.9329310402706153E-6</v>
+      </c>
+      <c r="W7">
+        <f>MAX(Calcs!W35,0)</f>
+        <v>9.1794405787296826E-6</v>
+      </c>
+      <c r="X7">
+        <f>MAX(Calcs!X35,0)</f>
+        <v>8.0323304669281553E-6</v>
+      </c>
+      <c r="Y7">
+        <f>MAX(Calcs!Y35,0)</f>
+        <v>6.4635088739849921E-6</v>
+      </c>
+      <c r="Z7">
+        <f>MAX(Calcs!Z35,0)</f>
+        <v>6.4197138942311997E-6</v>
+      </c>
+      <c r="AA7">
+        <f>MAX(Calcs!AA35,0)</f>
+        <v>4.7743679163858121E-6</v>
+      </c>
+      <c r="AB7">
+        <f>MAX(Calcs!AB35,0)</f>
+        <v>3.7014678237905137E-6</v>
+      </c>
+      <c r="AC7">
+        <f>MAX(Calcs!AC35,0)</f>
+        <v>5.4807606455608285E-6</v>
+      </c>
+      <c r="AD7">
+        <f>MAX(Calcs!AD35,0)</f>
+        <v>3.4510814275411062E-6</v>
+      </c>
+      <c r="AE7">
+        <f>MAX(Calcs!AE35,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f>MAX(Calcs!AF35,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <f>MAX(Calcs!AG35,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <f>MAX(Calcs!AH35,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <f>MAX(Calcs!AI35,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <f>MAX(Calcs!AJ35,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <f>MAX(Calcs!AK35,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <f>0</f>
@@ -2932,7 +4932,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <f>0</f>
@@ -3081,7 +5081,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <f>0</f>
@@ -3230,7 +5230,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <f>0</f>

--- a/InputData/trans/ICtPSFfL/Incremental Cost to Produce Substitute Fuel for LCFS.xlsx
+++ b/InputData/trans/ICtPSFfL/Incremental Cost to Produce Substitute Fuel for LCFS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\ICtPSFfL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/trans/ictpsffl/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CFA79B-9CAA-9D46-9A64-13C663ABE6FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13800"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -28,10 +29,19 @@
     <definedName name="nonlignite_multiplier">#REF!</definedName>
     <definedName name="use_lifecycle_biofuel_EIs">[1]About!$A$61</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -172,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -225,6 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,22 +585,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="6">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -597,92 +611,92 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>947817.12</v>
       </c>
@@ -697,23 +711,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>2015</v>
       </c>
@@ -823,7 +837,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -936,7 +950,7 @@
         <v>38.8994534841326</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1049,7 +1063,7 @@
         <v>47.526138928681398</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1162,7 +1176,7 @@
         <v>36.031200708728697</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1275,7 +1289,7 @@
         <v>41.934834775512002</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1388,7 +1402,7 @@
         <v>36.031508112322399</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1501,12 +1515,12 @@
         <v>39.309585492238803</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1619,7 +1633,7 @@
         <v>38.8994534841326</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1732,12 +1746,12 @@
         <v>47.526138928681398</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1886,7 +1900,7 @@
         <v>4.1041096075720387E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -2035,7 +2049,7 @@
         <v>5.0142731045712066E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2184,7 +2198,7 @@
         <v>3.8014929197236589E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2333,7 +2347,7 @@
         <v>4.4243592873182117E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2482,7 +2496,7 @@
         <v>3.8015253525197351E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2631,7 +2645,7 @@
         <v>4.1473808251362669E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2780,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2929,7 +2943,7 @@
         <v>4.1041096075720387E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -3078,12 +3092,12 @@
         <v>5.0142731045712066E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -3091,7 +3105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -3099,7 +3113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -3107,7 +3121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -3115,12 +3129,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>2015</v>
       </c>
@@ -3230,7 +3244,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -3343,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -3456,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -3605,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -3760,7 +3774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3768,13 +3782,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -3887,7 +3901,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4036,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4185,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -4334,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -4483,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4632,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -4781,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4930,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -5079,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -5228,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>

--- a/InputData/trans/ICtPSFfL/Incremental Cost to Produce Substitute Fuel for LCFS.xlsx
+++ b/InputData/trans/ICtPSFfL/Incremental Cost to Produce Substitute Fuel for LCFS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/trans/ictpsffl/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/trans/ictpsffl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CFA79B-9CAA-9D46-9A64-13C663ABE6FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1586DB28-58E7-E742-ABD4-C697EC8EA589}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
